--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/20/seed1/result_data_RandomForest.xlsx
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.919499999999998</v>
+        <v>-6.718099999999995</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.184800000000001</v>
+        <v>-8.128200000000001</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.786199999999993</v>
+        <v>-7.688899999999993</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.9566</v>
+        <v>-8.047100000000006</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -709,7 +709,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.323799999999999</v>
+        <v>-8.1602</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.131899999999998</v>
+        <v>-8.122100000000003</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.775999999999998</v>
+        <v>-7.755200000000002</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
